--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1522307.860006531</v>
+        <v>1518151.673698564</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283199</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10646249.55501306</v>
+        <v>10646249.55501305</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48.60751682748921</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>94.24014755885203</v>
@@ -712,19 +712,19 @@
         <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>321.095893321992</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>40.8036916968146</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>92.71499065745471</v>
       </c>
     </row>
     <row r="5">
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>235.0768521847867</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>158.7162633552373</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>99.45269887111799</v>
       </c>
       <c r="T7" t="n">
         <v>220.7052287134384</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>261.0541242611975</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>304.7349598492239</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186934</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>322.7655415544582</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,13 +1302,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>83.24876159615469</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>181.0919561226084</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576137</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>108.9065924712579</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634789</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.6197054599881007</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>100.0416311957212</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6164309267676</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>26.05480806223588</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>34.22340015155905</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>176.76214411214</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>130.7323655469549</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3198,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>97.0262957429552</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>153.2646806878225</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>80.56412890121605</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>153.589961858651</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>32.27552175740409</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>1.799772605717294</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>104.1233804225864</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2399.161149170367</v>
+        <v>974.4300896618174</v>
       </c>
       <c r="C2" t="n">
-        <v>2030.198632229955</v>
+        <v>974.4300896618174</v>
       </c>
       <c r="D2" t="n">
-        <v>1671.932933623204</v>
+        <v>974.4300896618174</v>
       </c>
       <c r="E2" t="n">
-        <v>1286.14468102496</v>
+        <v>974.4300896618174</v>
       </c>
       <c r="F2" t="n">
-        <v>875.1587762353527</v>
+        <v>563.4441848722098</v>
       </c>
       <c r="G2" t="n">
-        <v>458.7065149272273</v>
+        <v>146.9919235640844</v>
       </c>
       <c r="H2" t="n">
         <v>146.9919235640844</v>
@@ -4330,22 +4330,22 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073753</v>
+        <v>125.8997233870222</v>
       </c>
       <c r="K2" t="n">
-        <v>605.2571586872803</v>
+        <v>287.6947354520161</v>
       </c>
       <c r="L2" t="n">
-        <v>842.8799399054703</v>
+        <v>928.7179450719102</v>
       </c>
       <c r="M2" t="n">
-        <v>1138.950506463071</v>
+        <v>1224.788511629511</v>
       </c>
       <c r="N2" t="n">
-        <v>1444.425612698655</v>
+        <v>1530.263617865094</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015287</v>
+        <v>1805.379837181727</v>
       </c>
       <c r="P2" t="n">
         <v>2238.426880394156</v>
@@ -4360,22 +4360,22 @@
         <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2448.259651016315</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2448.259651016315</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>2448.259651016315</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="W2" t="n">
-        <v>2448.259651016315</v>
+        <v>1298.769375845648</v>
       </c>
       <c r="X2" t="n">
-        <v>2448.259651016315</v>
+        <v>974.4300896618174</v>
       </c>
       <c r="Y2" t="n">
-        <v>2448.259651016315</v>
+        <v>974.4300896618174</v>
       </c>
     </row>
     <row r="3">
@@ -4391,43 +4391,43 @@
         <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669854</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615298</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884149</v>
+        <v>320.7307563884148</v>
       </c>
       <c r="G3" t="n">
         <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093843</v>
+        <v>85.99742130093844</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995008</v>
+        <v>201.9455071369548</v>
       </c>
       <c r="K3" t="n">
-        <v>198.5384744202281</v>
+        <v>585.1891840496857</v>
       </c>
       <c r="L3" t="n">
-        <v>408.1293476730576</v>
+        <v>831.5342839343316</v>
       </c>
       <c r="M3" t="n">
-        <v>1049.152557292952</v>
+        <v>1472.557493554226</v>
       </c>
       <c r="N3" t="n">
-        <v>1334.486427726283</v>
+        <v>2113.58070317412</v>
       </c>
       <c r="O3" t="n">
-        <v>1963.215075561703</v>
+        <v>2352.385654925577</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020796</v>
+        <v>2524.714615879286</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1687.632292727308</v>
+        <v>487.7804804200059</v>
       </c>
       <c r="C4" t="n">
-        <v>1518.696109799401</v>
+        <v>487.7804804200059</v>
       </c>
       <c r="D4" t="n">
-        <v>1477.480259600599</v>
+        <v>487.7804804200059</v>
       </c>
       <c r="E4" t="n">
-        <v>1477.480259600599</v>
+        <v>487.7804804200059</v>
       </c>
       <c r="F4" t="n">
-        <v>1330.590312102689</v>
+        <v>487.7804804200059</v>
       </c>
       <c r="G4" t="n">
-        <v>1330.590312102689</v>
+        <v>319.4587080131298</v>
       </c>
       <c r="H4" t="n">
-        <v>1330.590312102689</v>
+        <v>167.7386194637151</v>
       </c>
       <c r="I4" t="n">
-        <v>1330.590312102689</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>1332.824984110053</v>
+        <v>54.03452733018376</v>
       </c>
       <c r="K4" t="n">
-        <v>1466.334073395855</v>
+        <v>187.5436166159864</v>
       </c>
       <c r="L4" t="n">
-        <v>1692.706176713999</v>
+        <v>413.9157199341299</v>
       </c>
       <c r="M4" t="n">
-        <v>1941.772943046538</v>
+        <v>662.9824862666695</v>
       </c>
       <c r="N4" t="n">
-        <v>2190.352074789138</v>
+        <v>911.5616180092698</v>
       </c>
       <c r="O4" t="n">
-        <v>2403.938841137293</v>
+        <v>1125.148384357424</v>
       </c>
       <c r="P4" t="n">
-        <v>2563.178535773336</v>
+        <v>1284.388078993468</v>
       </c>
       <c r="Q4" t="n">
-        <v>2589.992766140986</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="R4" t="n">
-        <v>2589.992766140986</v>
+        <v>1193.542248702562</v>
       </c>
       <c r="S4" t="n">
-        <v>2387.520519301288</v>
+        <v>991.0700018628636</v>
       </c>
       <c r="T4" t="n">
-        <v>2163.109360076725</v>
+        <v>991.0700018628636</v>
       </c>
       <c r="U4" t="n">
-        <v>2163.109360076725</v>
+        <v>991.0700018628636</v>
       </c>
       <c r="V4" t="n">
-        <v>1908.424871870838</v>
+        <v>991.0700018628636</v>
       </c>
       <c r="W4" t="n">
-        <v>1908.424871870838</v>
+        <v>991.0700018628636</v>
       </c>
       <c r="X4" t="n">
-        <v>1908.424871870838</v>
+        <v>763.0804509648462</v>
       </c>
       <c r="Y4" t="n">
-        <v>1687.632292727308</v>
+        <v>669.4289452502455</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1813.253594101053</v>
+        <v>1652.934136166469</v>
       </c>
       <c r="C5" t="n">
-        <v>1444.291077160641</v>
+        <v>1283.971619226057</v>
       </c>
       <c r="D5" t="n">
-        <v>1086.025378553891</v>
+        <v>925.7059206193069</v>
       </c>
       <c r="E5" t="n">
-        <v>700.2371259556462</v>
+        <v>539.9176680210627</v>
       </c>
       <c r="F5" t="n">
-        <v>289.2512211660386</v>
+        <v>128.9317632314552</v>
       </c>
       <c r="G5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
@@ -4570,19 +4570,19 @@
         <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135514</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477385</v>
+        <v>804.6133007477392</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
@@ -4606,13 +4606,13 @@
         <v>2589.992766140986</v>
       </c>
       <c r="W5" t="n">
-        <v>2589.992766140986</v>
+        <v>2429.673308206402</v>
       </c>
       <c r="X5" t="n">
-        <v>2589.992766140986</v>
+        <v>2429.673308206402</v>
       </c>
       <c r="Y5" t="n">
-        <v>2199.853434165174</v>
+        <v>2039.533976230591</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>688.5974568552863</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L6" t="n">
-        <v>985.909405971601</v>
+        <v>942.9699568457227</v>
       </c>
       <c r="M6" t="n">
-        <v>1352.215295463926</v>
+        <v>1470.397510810264</v>
       </c>
       <c r="N6" t="n">
-        <v>1742.624856789669</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O6" t="n">
-        <v>2077.5535375052</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2327.030265370218</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>452.1490171233264</v>
+        <v>620.1252058614371</v>
       </c>
       <c r="C7" t="n">
-        <v>452.1490171233264</v>
+        <v>620.1252058614371</v>
       </c>
       <c r="D7" t="n">
-        <v>452.1490171233264</v>
+        <v>620.1252058614371</v>
       </c>
       <c r="E7" t="n">
-        <v>304.2359235409333</v>
+        <v>472.2121122790439</v>
       </c>
       <c r="F7" t="n">
-        <v>157.3459760430229</v>
+        <v>325.3221647811336</v>
       </c>
       <c r="G7" t="n">
         <v>157.3459760430229</v>
@@ -4749,28 +4749,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916872</v>
+        <v>1546.52639856689</v>
       </c>
       <c r="T7" t="n">
-        <v>1125.478067458854</v>
+        <v>1323.591824108871</v>
       </c>
       <c r="U7" t="n">
-        <v>1125.478067458854</v>
+        <v>1323.591824108871</v>
       </c>
       <c r="V7" t="n">
-        <v>1125.478067458854</v>
+        <v>1068.907335902984</v>
       </c>
       <c r="W7" t="n">
-        <v>861.7870328515835</v>
+        <v>1068.907335902984</v>
       </c>
       <c r="X7" t="n">
-        <v>633.7974819535661</v>
+        <v>840.9177850049672</v>
       </c>
       <c r="Y7" t="n">
-        <v>633.7974819535661</v>
+        <v>620.1252058614371</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1487.227794551095</v>
+        <v>378.199884588279</v>
       </c>
       <c r="C8" t="n">
-        <v>1118.265277610684</v>
+        <v>70.38679383148718</v>
       </c>
       <c r="D8" t="n">
-        <v>759.9995790039331</v>
+        <v>70.38679383148718</v>
       </c>
       <c r="E8" t="n">
-        <v>374.211326405689</v>
+        <v>70.38679383148718</v>
       </c>
       <c r="F8" t="n">
-        <v>367.2658256564855</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G8" t="n">
-        <v>355.6243878970215</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104781</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135512</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L8" t="n">
         <v>804.6133007477388</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507463</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140987</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140987</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140987</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="V8" t="n">
-        <v>2589.992766140987</v>
+        <v>1881.173470159406</v>
       </c>
       <c r="W8" t="n">
-        <v>2263.966966591029</v>
+        <v>1528.404814889292</v>
       </c>
       <c r="X8" t="n">
-        <v>2263.966966591029</v>
+        <v>1154.939056628212</v>
       </c>
       <c r="Y8" t="n">
-        <v>1873.827634615217</v>
+        <v>764.7997246524008</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226162</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>563.7673318682818</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L9" t="n">
-        <v>861.0792809845966</v>
+        <v>599.2586963421436</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.385170476922</v>
+        <v>965.564585834469</v>
       </c>
       <c r="N9" t="n">
-        <v>1617.794731802665</v>
+        <v>1355.974147160211</v>
       </c>
       <c r="O9" t="n">
-        <v>1952.723412518196</v>
+        <v>1880.457611898</v>
       </c>
       <c r="P9" t="n">
         <v>2445.212480716556</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>433.9192464954826</v>
+        <v>833.6319074814764</v>
       </c>
       <c r="C10" t="n">
-        <v>433.9192464954826</v>
+        <v>664.6957245535696</v>
       </c>
       <c r="D10" t="n">
-        <v>283.8026070831469</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="E10" t="n">
-        <v>135.8895135007538</v>
+        <v>366.6659915588407</v>
       </c>
       <c r="F10" t="n">
-        <v>135.8895135007538</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G10" t="n">
-        <v>135.8895135007538</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080555</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1348.412641916873</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1125.478067458854</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>836.3602904692525</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>836.3602904692525</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>836.3602904692525</v>
+        <v>1464.062502353264</v>
       </c>
       <c r="X10" t="n">
-        <v>836.3602904692525</v>
+        <v>1236.072951455246</v>
       </c>
       <c r="Y10" t="n">
-        <v>615.5677113257224</v>
+        <v>1015.280372311716</v>
       </c>
     </row>
     <row r="11">
@@ -5035,40 +5035,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192581</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5108,37 +5108,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>251.5626541092277</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>746.8882603249862</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2354.274259167293</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429802</v>
@@ -5196,55 +5196,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192586</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191923</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349507</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1520.445529061502</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2148.043492616109</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>870.3164745246287</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>701.3802915967218</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>551.263652184386</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>403.3505586019929</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>403.3505586019929</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>236.1544593168729</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>94.44262815907095</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.757518498398</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.964939354868</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,19 +5530,19 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1052.829365488567</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="C19" t="n">
-        <v>883.8931825606599</v>
+        <v>814.4041655335318</v>
       </c>
       <c r="D19" t="n">
-        <v>733.7765431483241</v>
+        <v>664.287526121196</v>
       </c>
       <c r="E19" t="n">
-        <v>585.863449565931</v>
+        <v>516.3744325388029</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4844850408925</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2227.361618603201</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1972.677130397314</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1683.259960360354</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1455.270409462336</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1234.477830318806</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,16 +5980,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192507</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6080,16 +6080,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6208,67 +6208,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2197.062545487567</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6451,16 +6451,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6472,40 +6472,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>763.7541388327643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D31" t="n">
-        <v>763.7541388327643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6706,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>702.4944101284095</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C34" t="n">
-        <v>533.5582272005026</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>383.4415877881669</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>235.5284942057738</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2166.101889898846</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1877.026663243044</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.342175037157</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1332.925005000197</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1104.935454102179</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y34" t="n">
-        <v>884.1428749586493</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068011</v>
@@ -6958,10 +6958,10 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492579</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1097.958364892466</v>
+        <v>653.7474797708873</v>
       </c>
       <c r="C37" t="n">
-        <v>929.0221819645594</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>778.9055425522237</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>630.9924489698305</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>484.1025014719202</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>316.9064021868001</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H37" t="n">
-        <v>175.1945710289982</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934014</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>835.395944601127</v>
       </c>
     </row>
     <row r="38">
@@ -7156,37 +7156,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>814.4194208819173</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>664.3027814695815</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7405,13 +7405,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075809</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2757.723669558405</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>2588.787486630498</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>2588.787486630498</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
-        <v>2588.787486630498</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F43" t="n">
-        <v>2588.787486630498</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>2421.591387345378</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430192</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>3160.164713532175</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>2939.372134388645</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.843151638089</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>572.9069687101821</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>422.7903292978464</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611859</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.4916164683287</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>151.673509307991</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>407.4751802037413</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>235.093652447806</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>37.12548144627917</v>
       </c>
       <c r="M3" t="n">
         <v>380.8926041660687</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>359.2821607945077</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>183.0243075811963</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>347.1830914177568</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>162.7491560325416</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>119.3759750973111</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.1843750390658</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>191.4694788103611</v>
       </c>
       <c r="P9" t="n">
-        <v>245.4670104377187</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906576</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.359001882723533e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038671</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>80.64613085857746</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.5229983365965</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>45.37941682721004</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>32.90770736550127</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>75.37549921168795</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>15.70159709961428</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>104.0840080815017</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25086,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>120.3791545843331</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>65.31997266427226</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.7017074173494677</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>114.1584408891651</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.4949402405066</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>42.31058222398281</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>934315.3989887759</v>
+        <v>934315.398988776</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>913529.4203363681</v>
+        <v>913529.4203363678</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>913529.4203363679</v>
+        <v>913529.4203363678</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>913529.4203363681</v>
+        <v>913529.420336368</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>913529.4203363681</v>
+        <v>913529.4203363679</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>913529.4203363679</v>
+        <v>913529.420336368</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>913529.4203363681</v>
+        <v>913529.420336368</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>913529.420336368</v>
+        <v>913529.4203363679</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>913529.4203363681</v>
+        <v>913529.420336368</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>913529.4203363681</v>
+        <v>913529.4203363679</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>913529.420336368</v>
+        <v>913529.4203363679</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651774</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="G2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="I2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="K2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="L2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="M2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="I2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="O2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062537</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062538</v>
@@ -26371,16 +26371,16 @@
         <v>172764.3597898951</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457505</v>
+        <v>500888.8677457501</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042353</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151603</v>
+        <v>159785.8388151604</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695077</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695093</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150961</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-675662.7434223699</v>
       </c>
       <c r="C6" t="n">
-        <v>117838.9022885245</v>
+        <v>117838.9022885244</v>
       </c>
       <c r="D6" t="n">
         <v>290603.2620784196</v>
       </c>
       <c r="E6" t="n">
-        <v>-103832.253295099</v>
+        <v>-104179.6325494556</v>
       </c>
       <c r="F6" t="n">
-        <v>397056.6144506515</v>
+        <v>396709.2351962945</v>
       </c>
       <c r="G6" t="n">
-        <v>397056.6144506515</v>
+        <v>396709.2351962941</v>
       </c>
       <c r="H6" t="n">
-        <v>397056.6144506516</v>
+        <v>396709.2351962945</v>
       </c>
       <c r="I6" t="n">
-        <v>397056.6144506515</v>
+        <v>396709.2351962945</v>
       </c>
       <c r="J6" t="n">
-        <v>227642.5976246035</v>
+        <v>227295.2183702463</v>
       </c>
       <c r="K6" t="n">
-        <v>397056.6144506516</v>
+        <v>396709.2351962944</v>
       </c>
       <c r="L6" t="n">
-        <v>397056.6144506516</v>
+        <v>396709.2351962946</v>
       </c>
       <c r="M6" t="n">
-        <v>266172.1575464162</v>
+        <v>265824.7782920594</v>
       </c>
       <c r="N6" t="n">
-        <v>397056.6144506515</v>
+        <v>396709.2351962944</v>
       </c>
       <c r="O6" t="n">
-        <v>397056.6144506515</v>
+        <v>396709.2351962946</v>
       </c>
       <c r="P6" t="n">
-        <v>397056.6144506516</v>
+        <v>396709.2351962946</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498448</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,10 +26813,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26965,16 +26965,16 @@
         <v>189.7254341522367</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918292</v>
+        <v>428.2691096918287</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644015</v>
+        <v>525.2100965644013</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352467</v>
+        <v>647.4981915352469</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644015</v>
+        <v>525.2100965644013</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>334.1263248359913</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>48.635207356477</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>107.8117813213978</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>125.8696626946401</v>
       </c>
     </row>
     <row r="5">
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>176.4481711970826</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>190.5247053621757</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>95.03247046297311</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27833,16 +27833,16 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>25.4688740753935</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>60.5379319217837</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767967</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>26.47542716295482</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>63.91229861529227</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>104.4906595130011</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>105.4310422139826</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.648459146963432e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28547,7 +28547,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-3.184284481264334e-12</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265705</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730741</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839335</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712725</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086972</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179233</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
         <v>16.53694361837063</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
         <v>385.9711022274806</v>
@@ -31630,13 +31630,13 @@
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
@@ -31688,7 +31688,7 @@
         <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
         <v>265.6288080979552</v>
@@ -31700,22 +31700,22 @@
         <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.1932427566251</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843064</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523074</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>297.1808238847185</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319862</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33265,10 +33265,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>209.9499448422524</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>569.5723171953896</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,16 +33997,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520763</v>
+        <v>74.84835158000254</v>
       </c>
       <c r="K2" t="n">
-        <v>315.1028144241465</v>
+        <v>163.4293051161554</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315052</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="M2" t="n">
         <v>299.061178341011</v>
@@ -34716,7 +34716,7 @@
         <v>277.8951710269015</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938075</v>
+        <v>437.4212557701309</v>
       </c>
       <c r="Q2" t="n">
         <v>315.5952546185448</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932359</v>
+        <v>151.6622745597324</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151796</v>
+        <v>387.1148251643746</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806359</v>
+        <v>248.8334342269151</v>
       </c>
       <c r="M3" t="n">
         <v>647.4981915352465</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407388</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422579995</v>
+        <v>241.2171229812699</v>
       </c>
       <c r="P3" t="n">
-        <v>357.0939651101948</v>
+        <v>174.0696575289985</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527179</v>
+        <v>65.93752551686885</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>453.0121960057227</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>532.7551050146885</v>
       </c>
       <c r="N6" t="n">
         <v>394.3530922482246</v>
@@ -35035,7 +35035,7 @@
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>237.4056613270733</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873425</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495858</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961991</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.1266691917136</v>
+        <v>64.12666919171355</v>
       </c>
       <c r="K9" t="n">
-        <v>453.0121960057228</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025568</v>
+        <v>529.7812775129178</v>
       </c>
       <c r="P9" t="n">
-        <v>497.4637052508691</v>
+        <v>570.4594634530874</v>
       </c>
       <c r="Q9" t="n">
         <v>118.0296862297623</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978365</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912598</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
         <v>305.2126850597958</v>
@@ -35345,13 +35345,13 @@
         <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701674</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>159.3393849103595</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875417</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>263.67989750701</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36913,10 +36913,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>71.39556506237825</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.300110790297</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>426.9760727509451</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1518151.673698564</v>
+        <v>1519912.204001349</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283199</v>
+        <v>416855.1052283197</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>412.2877386950441</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>178.5286432092265</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>321.095893321992</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>14.9648357885101</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>92.71499065745471</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>158.7162633552373</v>
+        <v>20.73279552299877</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>99.45269887111799</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>181.0919561226081</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>304.7349598492239</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>313.4409126298451</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>100.5827519824194</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>181.0919561226084</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576137</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>23.6255456814136</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>108.9065924712579</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634789</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>38.61213096654825</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6197054599881007</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2016,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>132.6164309267676</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>113.3174219124918</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>138.2893995353463</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>26.05480806223588</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.22340015155905</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>107.3870054807226</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>41.33703994142957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>78.58522891595203</v>
       </c>
     </row>
     <row r="32">
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.2646806878225</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X37" t="n">
-        <v>153.589961858651</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560513</v>
       </c>
     </row>
     <row r="39">
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>93.40444476187523</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533521023</v>
       </c>
     </row>
     <row r="41">
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>119.6760079449695</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>974.4300896618174</v>
+        <v>570.3896856214128</v>
       </c>
       <c r="C2" t="n">
-        <v>974.4300896618174</v>
+        <v>570.3896856214128</v>
       </c>
       <c r="D2" t="n">
-        <v>974.4300896618174</v>
+        <v>570.3896856214128</v>
       </c>
       <c r="E2" t="n">
-        <v>974.4300896618174</v>
+        <v>570.3896856214128</v>
       </c>
       <c r="F2" t="n">
-        <v>563.4441848722098</v>
+        <v>563.4441848722093</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640844</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640844</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870222</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520161</v>
+        <v>608.5986938974718</v>
       </c>
       <c r="L2" t="n">
-        <v>928.7179450719102</v>
+        <v>846.2214751156638</v>
       </c>
       <c r="M2" t="n">
-        <v>1224.788511629511</v>
+        <v>1142.292041673267</v>
       </c>
       <c r="N2" t="n">
-        <v>1530.263617865094</v>
+        <v>1447.767147908852</v>
       </c>
       <c r="O2" t="n">
-        <v>1805.379837181727</v>
+        <v>2088.790357528746</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394156</v>
+        <v>2289.09468481785</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466516</v>
+        <v>2550.866182466515</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
@@ -4360,22 +4360,22 @@
         <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077746</v>
+        <v>2267.927688178713</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.600918459333</v>
+        <v>2014.286826560299</v>
       </c>
       <c r="V2" t="n">
-        <v>1651.538031115762</v>
+        <v>1683.223939216728</v>
       </c>
       <c r="W2" t="n">
-        <v>1298.769375845648</v>
+        <v>1330.455283946614</v>
       </c>
       <c r="X2" t="n">
-        <v>974.4300896618174</v>
+        <v>956.9895256855345</v>
       </c>
       <c r="Y2" t="n">
-        <v>974.4300896618174</v>
+        <v>956.9895256855345</v>
       </c>
     </row>
     <row r="3">
@@ -4385,64 +4385,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884148</v>
+        <v>320.7307563884145</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093844</v>
+        <v>85.99742130093821</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369548</v>
+        <v>81.08615341727966</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496857</v>
+        <v>464.3298303300115</v>
       </c>
       <c r="L3" t="n">
-        <v>831.5342839343316</v>
+        <v>1041.052645433267</v>
       </c>
       <c r="M3" t="n">
-        <v>1472.557493554226</v>
+        <v>1304.992176928755</v>
       </c>
       <c r="N3" t="n">
-        <v>2113.58070317412</v>
+        <v>1590.326047362088</v>
       </c>
       <c r="O3" t="n">
-        <v>2352.385654925577</v>
+        <v>1829.130999113547</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879286</v>
+        <v>2316.738101020795</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>487.7804804200059</v>
+        <v>680.7717144893356</v>
       </c>
       <c r="C4" t="n">
-        <v>487.7804804200059</v>
+        <v>511.8355315614288</v>
       </c>
       <c r="D4" t="n">
-        <v>487.7804804200059</v>
+        <v>361.718892149093</v>
       </c>
       <c r="E4" t="n">
-        <v>487.7804804200059</v>
+        <v>213.8057985666999</v>
       </c>
       <c r="F4" t="n">
-        <v>487.7804804200059</v>
+        <v>66.91585106878952</v>
       </c>
       <c r="G4" t="n">
-        <v>319.4587080131298</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637151</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018376</v>
+        <v>54.03452733018416</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159864</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341299</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666695</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092698</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357424</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993468</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.542248702562</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>991.0700018628636</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>991.0700018628636</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="U4" t="n">
-        <v>991.0700018628636</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="V4" t="n">
-        <v>991.0700018628636</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="W4" t="n">
-        <v>991.0700018628636</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="X4" t="n">
-        <v>763.0804509648462</v>
+        <v>1083.212758463106</v>
       </c>
       <c r="Y4" t="n">
-        <v>669.4289452502455</v>
+        <v>862.4201793195754</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1652.934136166469</v>
+        <v>1294.668437559719</v>
       </c>
       <c r="C5" t="n">
-        <v>1283.971619226057</v>
+        <v>925.7059206193069</v>
       </c>
       <c r="D5" t="n">
         <v>925.7059206193069</v>
@@ -4570,19 +4570,19 @@
         <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135514</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477392</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
@@ -4594,25 +4594,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="V5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="W5" t="n">
-        <v>2429.673308206402</v>
+        <v>2444.873367860732</v>
       </c>
       <c r="X5" t="n">
-        <v>2429.673308206402</v>
+        <v>2071.407609599652</v>
       </c>
       <c r="Y5" t="n">
-        <v>2039.533976230591</v>
+        <v>1681.26827762384</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258287</v>
+        <v>688.5974568552863</v>
       </c>
       <c r="L6" t="n">
-        <v>942.9699568457227</v>
+        <v>985.909405971601</v>
       </c>
       <c r="M6" t="n">
-        <v>1470.397510810264</v>
+        <v>1352.215295463926</v>
       </c>
       <c r="N6" t="n">
-        <v>1860.807072136007</v>
+        <v>1742.624856789669</v>
       </c>
       <c r="O6" t="n">
-        <v>2195.735752851538</v>
+        <v>2077.5535375052</v>
       </c>
       <c r="P6" t="n">
         <v>2445.212480716556</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>620.1252058614371</v>
+        <v>833.6319074814764</v>
       </c>
       <c r="C7" t="n">
-        <v>620.1252058614371</v>
+        <v>664.6957245535696</v>
       </c>
       <c r="D7" t="n">
-        <v>620.1252058614371</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="E7" t="n">
-        <v>472.2121122790439</v>
+        <v>366.6659915588407</v>
       </c>
       <c r="F7" t="n">
-        <v>325.3221647811336</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
@@ -4752,25 +4752,25 @@
         <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1546.52639856689</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1323.591824108871</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1323.591824108871</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>1068.907335902984</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W7" t="n">
-        <v>1068.907335902984</v>
+        <v>1464.062502353264</v>
       </c>
       <c r="X7" t="n">
-        <v>840.9177850049672</v>
+        <v>1236.072951455246</v>
       </c>
       <c r="Y7" t="n">
-        <v>620.1252058614371</v>
+        <v>1015.280372311716</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>378.199884588279</v>
+        <v>755.9562932262879</v>
       </c>
       <c r="C8" t="n">
-        <v>70.38679383148718</v>
+        <v>386.9937762858762</v>
       </c>
       <c r="D8" t="n">
         <v>70.38679383148718</v>
@@ -4804,22 +4804,22 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
         <v>804.6133007477388</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
         <v>2384.705143645557</v>
@@ -4831,25 +4831,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.236357502977</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.173470159406</v>
+        <v>2258.929878797415</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.404814889292</v>
+        <v>1906.161223527301</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.939056628212</v>
+        <v>1532.695465266221</v>
       </c>
       <c r="Y8" t="n">
-        <v>764.7997246524008</v>
+        <v>1142.55613329041</v>
       </c>
     </row>
     <row r="9">
@@ -4868,40 +4868,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258289</v>
+        <v>598.8031573431329</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421436</v>
+        <v>896.1151064594476</v>
       </c>
       <c r="M9" t="n">
-        <v>965.564585834469</v>
+        <v>1262.420995951773</v>
       </c>
       <c r="N9" t="n">
-        <v>1355.974147160211</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>1880.457611898</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.6319074814764</v>
+        <v>472.4514170392436</v>
       </c>
       <c r="C10" t="n">
-        <v>664.6957245535696</v>
+        <v>303.5152341113367</v>
       </c>
       <c r="D10" t="n">
-        <v>514.5790851412338</v>
+        <v>153.3985946990009</v>
       </c>
       <c r="E10" t="n">
-        <v>366.6659915588407</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F10" t="n">
-        <v>219.7760440609304</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G10" t="n">
         <v>51.79985532281972</v>
@@ -4962,25 +4962,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
@@ -4998,16 +4998,16 @@
         <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>1646.983670153878</v>
+        <v>1392.299181947991</v>
       </c>
       <c r="W10" t="n">
-        <v>1464.062502353264</v>
+        <v>1102.882011911031</v>
       </c>
       <c r="X10" t="n">
-        <v>1236.072951455246</v>
+        <v>874.8924610130134</v>
       </c>
       <c r="Y10" t="n">
-        <v>1015.280372311716</v>
+        <v>654.0998818694833</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192581</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,40 +5105,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>251.5626541092277</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249862</v>
+        <v>352.5519571452603</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>366.9636532421617</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>199.7675539570417</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,40 +5290,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191923</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349507</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061502</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.043492616109</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>870.3164745246287</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C16" t="n">
-        <v>701.3802915967218</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D16" t="n">
-        <v>551.263652184386</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>403.3505586019929</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>403.3505586019929</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>236.1544593168729</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>94.44262815907095</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235164</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258105</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602303</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396416</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.747069396416</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.757518498398</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.964939354868</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="17">
@@ -5515,25 +5515,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852254</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3403484614387</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4041655335318</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>664.287526121196</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>516.3744325388029</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4844850408925</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797186</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,7 +5749,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5767,37 +5767,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797186</v>
@@ -5983,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192507</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,31 +6208,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>727.9786782557277</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="C28" t="n">
-        <v>559.0424953278208</v>
+        <v>814.4041655335318</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>664.287526121196</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>516.3744325388029</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>369.4844850408925</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>202.2883857557725</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6429,7 +6429,7 @@
         <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>526.5658826424041</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>526.5658826424041</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>526.5658826424041</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6691,16 +6691,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,13 +6925,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6946,31 +6946,31 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708873</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.395944601127</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,22 +7156,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7198,25 +7198,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7241,31 +7241,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876612</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597543</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597543</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597543</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597543</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179009</v>
       </c>
     </row>
     <row r="41">
@@ -7405,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7557,13 +7557,13 @@
         <v>411.9631215597619</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7636,19 +7636,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>407.4751802037413</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,13 +7993,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>369.603020508343</v>
       </c>
       <c r="P2" t="n">
-        <v>235.093652447806</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>161.1353902319293</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>4.010880068009058</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>37.12548144627917</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660687</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>359.2821607945077</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>347.1830914177568</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>162.7491560325416</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>119.3759750973113</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>173.7639243740396</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>191.4694788103611</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906578</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-12</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.359001882723533e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>116.6691671648103</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>72.11969353038671</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>80.64613085857746</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365965</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>32.90770736550127</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>105.267231439603</v>
       </c>
     </row>
     <row r="20">
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>41.54258064659095</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>139.469330230033</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>145.6085800303782</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>32.9077073655013</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>104.0840080815017</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>139.9994244361428</v>
       </c>
     </row>
     <row r="32">
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>65.31997266427226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X37" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>72.11969353039362</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>20.61870490125435</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>957321.6646846295</v>
+        <v>957321.6646846292</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>934315.398988776</v>
+        <v>934315.3989887759</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>913529.4203363678</v>
+        <v>913529.420336368</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>913529.4203363678</v>
+        <v>913529.420336368</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>913529.420336368</v>
+        <v>913529.4203363679</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>913529.420336368</v>
+        <v>913529.4203363678</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>913529.4203363679</v>
+        <v>913529.4203363678</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>913529.4203363679</v>
+        <v>913529.420336368</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>913529.4203363679</v>
+        <v>913529.420336368</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
+        <v>513151.1061651772</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.1061651771</v>
       </c>
-      <c r="D2" t="n">
-        <v>513151.1061651772</v>
-      </c>
       <c r="E2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062539</v>
       </c>
       <c r="F2" t="n">
         <v>504466.6248062537</v>
@@ -26331,31 +26331,31 @@
         <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="I2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="J2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062535</v>
       </c>
       <c r="K2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753987</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898951</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457501</v>
+        <v>500888.8677457509</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151604</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695051</v>
@@ -26450,10 +26450,10 @@
         <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695093</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695026</v>
       </c>
       <c r="O4" t="n">
         <v>6287.480531695052</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-675662.7434223699</v>
+        <v>-675662.7434223726</v>
       </c>
       <c r="C6" t="n">
-        <v>117838.9022885244</v>
+        <v>117838.9022885274</v>
       </c>
       <c r="D6" t="n">
-        <v>290603.2620784196</v>
+        <v>290603.2620784194</v>
       </c>
       <c r="E6" t="n">
-        <v>-104179.6325494556</v>
+        <v>-103866.9912205349</v>
       </c>
       <c r="F6" t="n">
-        <v>396709.2351962945</v>
+        <v>397021.876525216</v>
       </c>
       <c r="G6" t="n">
-        <v>396709.2351962941</v>
+        <v>397021.8765252159</v>
       </c>
       <c r="H6" t="n">
-        <v>396709.2351962945</v>
+        <v>397021.8765252156</v>
       </c>
       <c r="I6" t="n">
-        <v>396709.2351962945</v>
+        <v>397021.8765252158</v>
       </c>
       <c r="J6" t="n">
-        <v>227295.2183702463</v>
+        <v>227607.8596991677</v>
       </c>
       <c r="K6" t="n">
-        <v>396709.2351962944</v>
+        <v>397021.8765252157</v>
       </c>
       <c r="L6" t="n">
-        <v>396709.2351962946</v>
+        <v>397021.8765252157</v>
       </c>
       <c r="M6" t="n">
-        <v>265824.7782920594</v>
+        <v>266137.4196209806</v>
       </c>
       <c r="N6" t="n">
-        <v>396709.2351962944</v>
+        <v>397021.8765252159</v>
       </c>
       <c r="O6" t="n">
-        <v>396709.2351962946</v>
+        <v>397021.8765252157</v>
       </c>
       <c r="P6" t="n">
-        <v>396709.2351962946</v>
+        <v>397021.8765252157</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26792,16 +26792,16 @@
         <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522367</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918287</v>
+        <v>428.2691096918295</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644013</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352469</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644013</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>31.36904901995698</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>48.635207356477</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>151.6737188942972</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
         <v>222.1670476323163</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>125.8696626946401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>190.5247053621757</v>
+        <v>328.5081731944142</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,19 +27824,19 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>95.03247046297311</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>105.4310422139829</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>60.5379319217837</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>41.24212899083784</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27873,7 +27873,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>45.85121066414978</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -28070,10 +28070,10 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>105.4310422139826</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.648459146963432e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28547,7 +28547,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-3.184284481264334e-12</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
     </row>
     <row r="39">
@@ -30449,7 +30449,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>-6.001581020753262e-12</v>
       </c>
     </row>
     <row r="41">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31524,25 +31524,25 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O8" t="n">
         <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
         <v>407.9506271086971</v>
@@ -31551,7 +31551,7 @@
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179232</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T8" t="n">
         <v>16.53694361837063</v>
@@ -31603,22 +31603,22 @@
         <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P9" t="n">
         <v>385.9711022274806</v>
@@ -31630,13 +31630,13 @@
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
         <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31700,10 +31700,10 @@
         <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
         <v>76.19324275662508</v>
@@ -31712,10 +31712,10 @@
         <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>297.1808238847185</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>399.9031616963271</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422584</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>399.9031616963282</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319862</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000254</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161554</v>
+        <v>487.5747176873218</v>
       </c>
       <c r="L2" t="n">
+        <v>240.0230113315071</v>
+      </c>
+      <c r="M2" t="n">
+        <v>299.0611783410131</v>
+      </c>
+      <c r="N2" t="n">
+        <v>308.5607133692782</v>
+      </c>
+      <c r="O2" t="n">
         <v>647.4981915352465</v>
       </c>
-      <c r="M2" t="n">
-        <v>299.061178341011</v>
-      </c>
-      <c r="N2" t="n">
-        <v>308.560713369276</v>
-      </c>
-      <c r="O2" t="n">
-        <v>277.8951710269015</v>
-      </c>
       <c r="P2" t="n">
-        <v>437.4212557701309</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185448</v>
+        <v>264.4156541905707</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138441</v>
+        <v>39.52180169138521</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597324</v>
+        <v>29.58211928733327</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643746</v>
+        <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>248.8334342269151</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352465</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>647.4981915352465</v>
+        <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812699</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289985</v>
+        <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.93752551686885</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L6" t="n">
-        <v>647.4981915352464</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>532.7551050146885</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
         <v>394.3530922482246</v>
@@ -35032,7 +35032,7 @@
         <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>371.3726699104615</v>
       </c>
       <c r="Q6" t="n">
         <v>118.0296862297622</v>
@@ -35178,25 +35178,25 @@
         <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O8" t="n">
         <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
         <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171355</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931441</v>
+        <v>362.3108833671838</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174896</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O9" t="n">
-        <v>529.7812775129178</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
-        <v>570.4594634530874</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297623</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978362</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35348,10 +35348,10 @@
         <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>159.3393849103595</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>261.3487819164529</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678994</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>261.348781916454</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875417</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790297</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37563,10 +37563,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
